--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\teaching-myself\learning-k8s\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\go_wrkspce\src\aditya109\learning-myself\learning-k8s\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2D7822-C4F2-4B3F-9546-53E441FC6F65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751EAD21-CA90-4E57-A109-C266903DE429}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>Course Topics</t>
   </si>
@@ -435,18 +435,18 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
+    <col min="4" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,7 +457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -468,7 +468,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -479,7 +479,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -490,62 +490,74 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\go_wrkspce\src\aditya109\learning-myself\learning-k8s\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\go_wrkspce\src\learning-k8s\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751EAD21-CA90-4E57-A109-C266903DE429}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBCBEBF-28E7-4E89-8529-C13DE1432F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Course Topics</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>Mock Exams</t>
-  </si>
-  <si>
-    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -435,18 +432,18 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="2"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,107 +454,77 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
